--- a/ui-test/data/test_login.xlsx
+++ b/ui-test/data/test_login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouyangwenjing/PycharmProjects/test-framework/ui-test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D63928F-66BE-264D-98D3-8119D08FEF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4781707-8804-994E-97BF-9B4FD2A70B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="27060" windowHeight="16440" activeTab="2" xr2:uid="{1D00AC36-8025-934C-9D88-1B7A731C2A30}"/>
+    <workbookView xWindow="580" yWindow="1000" windowWidth="27060" windowHeight="16440" activeTab="2" xr2:uid="{1D00AC36-8025-934C-9D88-1B7A731C2A30}"/>
   </bookViews>
   <sheets>
     <sheet name="login_success" sheetId="1" r:id="rId1"/>
@@ -91,13 +91,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码不能为空</t>
+    <t>验证码不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机号不能为空</t>
-  </si>
-  <si>
-    <t>验证码不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不能为空1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +634,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -685,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
@@ -700,7 +702,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21">

--- a/ui-test/data/test_login.xlsx
+++ b/ui-test/data/test_login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouyangwenjing/PycharmProjects/test-framework/ui-test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4781707-8804-994E-97BF-9B4FD2A70B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060D9C45-90AE-A245-827A-AFB762FD4479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1000" windowWidth="27060" windowHeight="16440" activeTab="2" xr2:uid="{1D00AC36-8025-934C-9D88-1B7A731C2A30}"/>
+    <workbookView xWindow="460" yWindow="1000" windowWidth="27060" windowHeight="16440" activeTab="2" xr2:uid="{1D00AC36-8025-934C-9D88-1B7A731C2A30}"/>
   </bookViews>
   <sheets>
     <sheet name="login_success" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="login_required_item" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,7 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码不能为空1</t>
+    <t>密码不能为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +634,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
